--- a/07_11_2020_t/Книга1.xlsx
+++ b/07_11_2020_t/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikhail/Documents/Преподавательская деятельность/Попов Сергей 2020-2021/s_popov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D8F82F2-B0CD-234D-9AEF-1036B440FAB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAFFC58-07A3-3744-BF5F-4BFF542E1C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2300" windowWidth="28040" windowHeight="17360" xr2:uid="{AE72E145-E1A9-8F47-8A90-98B6290BEF9A}"/>
+    <workbookView minimized="1" xWindow="3900" yWindow="2300" windowWidth="28040" windowHeight="17360" xr2:uid="{AE72E145-E1A9-8F47-8A90-98B6290BEF9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>СУММ</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>ОКРУГЛ</t>
+  </si>
+  <si>
+    <t>МАКС</t>
+  </si>
+  <si>
+    <t>МИН</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D49098-F20C-9A4E-82DD-AC4DF75D009E}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,7 +414,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -436,8 +442,14 @@
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -471,8 +483,16 @@
         <f>ROUND(D10,3)</f>
         <v>9090.2939999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <f>MAX(A2:C4)</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <f>MIN(B2:D4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -483,23 +503,153 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:O17" si="0">$F$7+$G$7</f>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <f>$F$7+$G$7</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I26" si="1">$F$7+$G$7</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -509,37 +659,697 @@
       <c r="D10" s="1">
         <v>9090.2937723800005</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>700</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>900</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21:R34" si="2">$F$7+$G$7</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="9:18" x14ac:dyDescent="0.2">
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
